--- a/exercicios/exercicios.xlsx
+++ b/exercicios/exercicios.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acsjunior/Documents/Projects/ppgmne-mnum7018/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acsjunior/Documents/Projects/ppgmne-mnum7018/exercicios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA851CF7-BF70-F246-B7BF-2BAF43AA4A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8E6D31-E44E-FF4C-8EAB-D710E861A932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{6903A805-DEDD-9B42-84CD-DFD0F402AE12}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{6903A805-DEDD-9B42-84CD-DFD0F402AE12}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercicio5" sheetId="1" r:id="rId1"/>
+    <sheet name="Exercicio1 - pag 37" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>Número de componentes necessários p/ sucesso Y</t>
   </si>
@@ -38,11 +39,41 @@
   <si>
     <t>Q</t>
   </si>
+  <si>
+    <t>Intervalo</t>
+  </si>
+  <si>
+    <t>Limite inf.</t>
+  </si>
+  <si>
+    <t>Limite sup.</t>
+  </si>
+  <si>
+    <t>Distribuição das frequências de falha</t>
+  </si>
+  <si>
+    <t>Frequência</t>
+  </si>
+  <si>
+    <t>Acumulado</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>n - f</t>
+  </si>
+  <si>
+    <t>R(t)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -74,7 +105,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -278,11 +309,141 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -317,21 +478,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -341,12 +508,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,7 +848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07129946-E9BD-A14E-A2D5-BABE3AC89A4F}">
   <dimension ref="B1:N10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -689,92 +874,92 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="13"/>
-      <c r="C3" s="17">
+      <c r="B3" s="18"/>
+      <c r="C3" s="19">
         <v>6</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="17">
+      <c r="D3" s="20"/>
+      <c r="E3" s="19">
         <v>5</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="19">
+      <c r="F3" s="19"/>
+      <c r="G3" s="21">
         <v>4</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="17">
+      <c r="H3" s="20"/>
+      <c r="I3" s="19">
         <v>3</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="19">
+      <c r="J3" s="19"/>
+      <c r="K3" s="21">
         <v>2</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="17">
+      <c r="L3" s="20"/>
+      <c r="M3" s="19">
         <v>1</v>
       </c>
-      <c r="N3" s="17"/>
+      <c r="N3" s="19"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="13"/>
-      <c r="C4" s="20" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="14">
+      <c r="B5" s="12">
         <v>6</v>
       </c>
       <c r="C5" s="2">
@@ -795,7 +980,7 @@
       <c r="N5" s="9"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="15">
+      <c r="B6" s="13">
         <v>5</v>
       </c>
       <c r="C6" s="4">
@@ -820,7 +1005,7 @@
       <c r="N6" s="11"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="15">
+      <c r="B7" s="13">
         <v>4</v>
       </c>
       <c r="C7" s="4">
@@ -849,7 +1034,7 @@
       <c r="N7" s="11"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <v>3</v>
       </c>
       <c r="C8" s="4">
@@ -882,7 +1067,7 @@
       <c r="N8" s="11"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="15">
+      <c r="B9" s="13">
         <v>2</v>
       </c>
       <c r="C9" s="4">
@@ -919,7 +1104,7 @@
       <c r="N9" s="11"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <v>1</v>
       </c>
       <c r="C10" s="6">
@@ -972,4 +1157,272 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A372FB-C3B2-9844-AFF7-A68F47C02DF3}">
+  <dimension ref="B2:H12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="22">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="26">
+        <v>1</v>
+      </c>
+      <c r="C5" s="27">
+        <v>0</v>
+      </c>
+      <c r="D5" s="28">
+        <v>100</v>
+      </c>
+      <c r="E5" s="27">
+        <v>2</v>
+      </c>
+      <c r="F5" s="28">
+        <f>E5</f>
+        <v>2</v>
+      </c>
+      <c r="G5" s="27">
+        <f>C2</f>
+        <v>54</v>
+      </c>
+      <c r="H5" s="35">
+        <f>G5/$C$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="29">
+        <v>2</v>
+      </c>
+      <c r="C6" s="30">
+        <v>100</v>
+      </c>
+      <c r="D6" s="31">
+        <v>200</v>
+      </c>
+      <c r="E6" s="30">
+        <v>5</v>
+      </c>
+      <c r="F6" s="31">
+        <f>E6+F5</f>
+        <v>7</v>
+      </c>
+      <c r="G6" s="30">
+        <f>$C$2-F5</f>
+        <v>52</v>
+      </c>
+      <c r="H6" s="36">
+        <f t="shared" ref="H6:H12" si="0">G6/$C$2</f>
+        <v>0.96296296296296291</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="29">
+        <v>3</v>
+      </c>
+      <c r="C7" s="30">
+        <v>200</v>
+      </c>
+      <c r="D7" s="31">
+        <v>300</v>
+      </c>
+      <c r="E7" s="30">
+        <v>10</v>
+      </c>
+      <c r="F7" s="31">
+        <f t="shared" ref="F7:F12" si="1">E7+F6</f>
+        <v>17</v>
+      </c>
+      <c r="G7" s="30">
+        <f>$C$2-F6</f>
+        <v>47</v>
+      </c>
+      <c r="H7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.87037037037037035</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="29">
+        <v>4</v>
+      </c>
+      <c r="C8" s="30">
+        <v>300</v>
+      </c>
+      <c r="D8" s="31">
+        <v>400</v>
+      </c>
+      <c r="E8" s="30">
+        <v>16</v>
+      </c>
+      <c r="F8" s="31">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="G8" s="30">
+        <f>$C$2-F7</f>
+        <v>37</v>
+      </c>
+      <c r="H8" s="36">
+        <f t="shared" si="0"/>
+        <v>0.68518518518518523</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="29">
+        <v>5</v>
+      </c>
+      <c r="C9" s="30">
+        <v>400</v>
+      </c>
+      <c r="D9" s="31">
+        <v>500</v>
+      </c>
+      <c r="E9" s="30">
+        <v>9</v>
+      </c>
+      <c r="F9" s="31">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="G9" s="30">
+        <f>$C$2-F8</f>
+        <v>21</v>
+      </c>
+      <c r="H9" s="36">
+        <f t="shared" si="0"/>
+        <v>0.3888888888888889</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="29">
+        <v>6</v>
+      </c>
+      <c r="C10" s="30">
+        <v>500</v>
+      </c>
+      <c r="D10" s="31">
+        <v>600</v>
+      </c>
+      <c r="E10" s="30">
+        <v>7</v>
+      </c>
+      <c r="F10" s="31">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="G10" s="30">
+        <f>$C$2-F9</f>
+        <v>12</v>
+      </c>
+      <c r="H10" s="36">
+        <f t="shared" si="0"/>
+        <v>0.22222222222222221</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="29">
+        <v>7</v>
+      </c>
+      <c r="C11" s="30">
+        <v>600</v>
+      </c>
+      <c r="D11" s="31">
+        <v>700</v>
+      </c>
+      <c r="E11" s="30">
+        <v>4</v>
+      </c>
+      <c r="F11" s="31">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="G11" s="30">
+        <f>$C$2-F10</f>
+        <v>5</v>
+      </c>
+      <c r="H11" s="36">
+        <f t="shared" si="0"/>
+        <v>9.2592592592592587E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="32">
+        <v>8</v>
+      </c>
+      <c r="C12" s="33">
+        <v>700</v>
+      </c>
+      <c r="D12" s="34">
+        <v>800</v>
+      </c>
+      <c r="E12" s="33">
+        <v>1</v>
+      </c>
+      <c r="F12" s="34">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="G12" s="33">
+        <f>$C$2-F11</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="37">
+        <f t="shared" si="0"/>
+        <v>1.8518518518518517E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/exercicios/exercicios.xlsx
+++ b/exercicios/exercicios.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acsjunior/Documents/Projects/ppgmne-mnum7018/exercicios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8E6D31-E44E-FF4C-8EAB-D710E861A932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEBB655-2B78-684C-A4FB-746EFDC1DAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{6903A805-DEDD-9B42-84CD-DFD0F402AE12}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="2" xr2:uid="{6903A805-DEDD-9B42-84CD-DFD0F402AE12}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercicio5" sheetId="1" r:id="rId1"/>
     <sheet name="Exercicio1 - pag 37" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>Número de componentes necessários p/ sucesso Y</t>
   </si>
@@ -64,14 +65,27 @@
     <t>n - f</t>
   </si>
   <si>
-    <t>R(t)</t>
+    <t>R(inf) estimado</t>
+  </si>
+  <si>
+    <t>R(sup) estimado</t>
+  </si>
+  <si>
+    <t>R(inf) - R(sup)</t>
+  </si>
+  <si>
+    <t>h(t) estimado</t>
+  </si>
+  <si>
+    <t>dist</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="0.000000"/>
     <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
@@ -91,7 +105,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,8 +118,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -439,11 +459,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -508,10 +539,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -532,6 +563,21 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1161,34 +1207,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A372FB-C3B2-9844-AFF7-A68F47C02DF3}">
-  <dimension ref="B2:H12"/>
+  <dimension ref="B2:K12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="23">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="23" t="s">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="40"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
         <v>4</v>
       </c>
@@ -1210,8 +1264,17 @@
       <c r="H4" s="24" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="26">
         <v>1</v>
       </c>
@@ -1236,8 +1299,20 @@
         <f>G5/$C$2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="35">
+        <f>G6/$C$2</f>
+        <v>0.96296296296296291</v>
+      </c>
+      <c r="J5" s="35">
+        <f>H5-I5</f>
+        <v>3.703703703703709E-2</v>
+      </c>
+      <c r="K5" s="41">
+        <f>J5/((D5-C5)*H5)</f>
+        <v>3.7037037037037089E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="29">
         <v>2</v>
       </c>
@@ -1259,11 +1334,23 @@
         <v>52</v>
       </c>
       <c r="H6" s="36">
-        <f t="shared" ref="H6:H12" si="0">G6/$C$2</f>
+        <f>G6/$C$2</f>
         <v>0.96296296296296291</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="36">
+        <f t="shared" ref="I6:I12" si="0">G7/$C$2</f>
+        <v>0.87037037037037035</v>
+      </c>
+      <c r="J6" s="36">
+        <f t="shared" ref="J6:J12" si="1">H6-I6</f>
+        <v>9.259259259259256E-2</v>
+      </c>
+      <c r="K6" s="42">
+        <f t="shared" ref="K6:K12" si="2">J6/((D6-C6)*H6)</f>
+        <v>9.6153846153846127E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="29">
         <v>3</v>
       </c>
@@ -1277,7 +1364,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="31">
-        <f t="shared" ref="F7:F12" si="1">E7+F6</f>
+        <f t="shared" ref="F7:F12" si="3">E7+F6</f>
         <v>17</v>
       </c>
       <c r="G7" s="30">
@@ -1285,11 +1372,23 @@
         <v>47</v>
       </c>
       <c r="H7" s="36">
+        <f>G7/$C$2</f>
+        <v>0.87037037037037035</v>
+      </c>
+      <c r="I7" s="36">
         <f t="shared" si="0"/>
-        <v>0.87037037037037035</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+        <v>0.68518518518518523</v>
+      </c>
+      <c r="J7" s="36">
+        <f t="shared" si="1"/>
+        <v>0.18518518518518512</v>
+      </c>
+      <c r="K7" s="42">
+        <f t="shared" si="2"/>
+        <v>2.1276595744680843E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="29">
         <v>4</v>
       </c>
@@ -1303,7 +1402,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="G8" s="30">
@@ -1311,11 +1410,23 @@
         <v>37</v>
       </c>
       <c r="H8" s="36">
+        <f>G8/$C$2</f>
+        <v>0.68518518518518523</v>
+      </c>
+      <c r="I8" s="36">
         <f t="shared" si="0"/>
-        <v>0.68518518518518523</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="J8" s="36">
+        <f t="shared" si="1"/>
+        <v>0.29629629629629634</v>
+      </c>
+      <c r="K8" s="42">
+        <f t="shared" si="2"/>
+        <v>4.3243243243243253E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="29">
         <v>5</v>
       </c>
@@ -1329,7 +1440,7 @@
         <v>9</v>
       </c>
       <c r="F9" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="G9" s="30">
@@ -1337,11 +1448,23 @@
         <v>21</v>
       </c>
       <c r="H9" s="36">
+        <f>G9/$C$2</f>
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="I9" s="36">
         <f t="shared" si="0"/>
-        <v>0.3888888888888889</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="J9" s="36">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="K9" s="42">
+        <f t="shared" si="2"/>
+        <v>4.2857142857142859E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="29">
         <v>6</v>
       </c>
@@ -1355,7 +1478,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="G10" s="30">
@@ -1363,11 +1486,23 @@
         <v>12</v>
       </c>
       <c r="H10" s="36">
+        <f>G10/$C$2</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="I10" s="36">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+        <v>9.2592592592592587E-2</v>
+      </c>
+      <c r="J10" s="36">
+        <f t="shared" si="1"/>
+        <v>0.12962962962962962</v>
+      </c>
+      <c r="K10" s="42">
+        <f t="shared" si="2"/>
+        <v>5.8333333333333336E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="29">
         <v>7</v>
       </c>
@@ -1381,7 +1516,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="G11" s="30">
@@ -1389,11 +1524,23 @@
         <v>5</v>
       </c>
       <c r="H11" s="36">
+        <f>G11/$C$2</f>
+        <v>9.2592592592592587E-2</v>
+      </c>
+      <c r="I11" s="36">
         <f t="shared" si="0"/>
-        <v>9.2592592592592587E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+        <v>1.8518518518518517E-2</v>
+      </c>
+      <c r="J11" s="36">
+        <f t="shared" si="1"/>
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="K11" s="42">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="32">
         <v>8</v>
       </c>
@@ -1407,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="G12" s="33">
@@ -1415,14 +1562,173 @@
         <v>1</v>
       </c>
       <c r="H12" s="37">
+        <f>G12/$C$2</f>
+        <v>1.8518518518518517E-2</v>
+      </c>
+      <c r="I12" s="37">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="37">
+        <f t="shared" si="1"/>
         <v>1.8518518518518517E-2</v>
+      </c>
+      <c r="K12" s="43">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E99F9EB-C28A-9D4E-A2D2-EFEF27CD3081}">
+  <dimension ref="E14:U28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U29" sqref="U29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="10" width="4.5" customWidth="1"/>
+    <col min="12" max="17" width="4.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="14" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E14" s="22"/>
+      <c r="F14" s="22">
+        <v>1</v>
+      </c>
+      <c r="G14" s="22">
+        <v>2</v>
+      </c>
+      <c r="H14" s="22">
+        <v>3</v>
+      </c>
+      <c r="I14" s="22">
+        <v>4</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22">
+        <v>1</v>
+      </c>
+      <c r="N14" s="22">
+        <v>2</v>
+      </c>
+      <c r="O14" s="22">
+        <v>3</v>
+      </c>
+      <c r="P14" s="22">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E15" s="22">
+        <v>1</v>
+      </c>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44">
+        <v>1</v>
+      </c>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="L15" s="22">
+        <v>1</v>
+      </c>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="44"/>
+    </row>
+    <row r="16" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E16" s="22">
+        <v>2</v>
+      </c>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44">
+        <v>1</v>
+      </c>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="L16" s="22">
+        <v>2</v>
+      </c>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44">
+        <v>1</v>
+      </c>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+    </row>
+    <row r="17" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E17" s="22">
+        <v>3</v>
+      </c>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44">
+        <v>1</v>
+      </c>
+      <c r="J17" s="44"/>
+      <c r="L17" s="22">
+        <v>3</v>
+      </c>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="44"/>
+    </row>
+    <row r="18" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E18" s="22">
+        <v>4</v>
+      </c>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44">
+        <v>1</v>
+      </c>
+      <c r="J18" s="44"/>
+      <c r="L18" s="22">
+        <v>4</v>
+      </c>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="44"/>
+    </row>
+    <row r="28" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="U28">
+        <f>1 - 3</f>
+        <v>-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>